--- a/Sprint 2/sprint 2 burndown.xlsx
+++ b/Sprint 2/sprint 2 burndown.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>Task</t>
   </si>
@@ -138,7 +138,7 @@
     <t>Integrate timer into game</t>
   </si>
   <si>
-    <t>Task: Coupling Analysis</t>
+    <t>Task: Coupling/Cohesion Analysis</t>
   </si>
   <si>
     <t>Provide updated UML diagram to scrum master</t>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Perform checkstyle conformance check</t>
+  </si>
+  <si>
+    <t>Perform cohesion analysis</t>
   </si>
 </sst>
 </file>
@@ -602,49 +605,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>37.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.5</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.5</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
@@ -1802,11 +1805,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI45"/>
+  <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC39" sqref="AC39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5381,16 +5384,16 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8">
-        <f>SUM(C39)</f>
-        <v>3</v>
+        <f>SUM(C39:C40)</f>
+        <v>4</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" ref="D38:AG38" si="6">SUM(D39)</f>
+        <f t="shared" ref="D38:AG38" si="6">SUM(D39:D40)</f>
         <v>0</v>
       </c>
       <c r="E38" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" si="6"/>
@@ -5398,7 +5401,7 @@
       </c>
       <c r="G38" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="6"/>
@@ -5406,7 +5409,7 @@
       </c>
       <c r="I38" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J38" s="8">
         <f t="shared" si="6"/>
@@ -5414,7 +5417,7 @@
       </c>
       <c r="K38" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L38" s="8">
         <f t="shared" si="6"/>
@@ -5422,7 +5425,7 @@
       </c>
       <c r="M38" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N38" s="8">
         <f t="shared" si="6"/>
@@ -5430,7 +5433,7 @@
       </c>
       <c r="O38" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P38" s="8">
         <f t="shared" si="6"/>
@@ -5438,7 +5441,7 @@
       </c>
       <c r="Q38" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R38" s="8">
         <f t="shared" si="6"/>
@@ -5446,7 +5449,7 @@
       </c>
       <c r="S38" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T38" s="8">
         <f t="shared" si="6"/>
@@ -5454,7 +5457,7 @@
       </c>
       <c r="U38" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V38" s="8">
         <f t="shared" si="6"/>
@@ -5462,7 +5465,7 @@
       </c>
       <c r="W38" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X38" s="8">
         <f t="shared" si="6"/>
@@ -5470,7 +5473,7 @@
       </c>
       <c r="Y38" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z38" s="8">
         <f t="shared" si="6"/>
@@ -5478,7 +5481,7 @@
       </c>
       <c r="AA38" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB38" s="8">
         <f t="shared" si="6"/>
@@ -5486,7 +5489,7 @@
       </c>
       <c r="AC38" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" si="6"/>
@@ -5494,11 +5497,11 @@
       </c>
       <c r="AE38" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF38" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG38" s="8">
         <f t="shared" si="6"/>
@@ -5506,7 +5509,7 @@
       </c>
       <c r="AH38" s="8">
         <f>SUM(D38,F38,H38,J38, L38, N38, P38, R38, T38, V38,X38,Z38,AB38,AD38, AF38)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AI38" s="8">
         <f>AG38</f>
@@ -5623,297 +5626,283 @@
       </c>
     </row>
     <row r="40" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="8"/>
-      <c r="AI40" s="8"/>
+      <c r="A40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <v>1</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
+        <v>1</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0</v>
+      </c>
+      <c r="O40" s="5">
+        <v>1</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>1</v>
+      </c>
+      <c r="R40" s="5">
+        <v>0</v>
+      </c>
+      <c r="S40" s="5">
+        <v>1</v>
+      </c>
+      <c r="T40" s="5">
+        <v>0</v>
+      </c>
+      <c r="U40" s="5">
+        <v>1</v>
+      </c>
+      <c r="V40" s="5">
+        <v>0</v>
+      </c>
+      <c r="W40" s="5">
+        <v>1</v>
+      </c>
+      <c r="X40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AG40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="8">
+        <f>SUM(D40,F40,H40,J40, L40, N40, P40, R40, T40, V40,X40,Z40,AB40,AD40, AF40)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AI40" s="8">
+        <f>AG40</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+    </row>
+    <row r="42" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8">
-        <f>SUM(C42:C43)</f>
-        <v>2</v>
-      </c>
-      <c r="D41" s="8">
-        <f t="shared" ref="D41:AG41" si="7">SUM(D42:D43)</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="8">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8">
+        <f>SUM(C43:C44)</f>
+        <v>2</v>
+      </c>
+      <c r="D42" s="8">
+        <f t="shared" ref="D42:AG42" si="7">SUM(D43:D44)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F42" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G42" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H42" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I42" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J42" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K42" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="L41" s="8">
+      <c r="L42" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M42" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N42" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O41" s="8">
+      <c r="O42" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P42" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="Q42" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="R41" s="8">
+      <c r="R42" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S41" s="8">
+      <c r="S42" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="T41" s="8">
+      <c r="T42" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U41" s="8">
+      <c r="U42" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V41" s="8">
+      <c r="V42" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W41" s="8">
+      <c r="W42" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="X41" s="8">
+      <c r="X42" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="8">
+      <c r="Y42" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="Z41" s="8">
+      <c r="Z42" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA41" s="8">
+      <c r="AA42" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AB41" s="8">
+      <c r="AB42" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC41" s="8">
+      <c r="AC42" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AD41" s="8">
+      <c r="AD42" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE41" s="8">
+      <c r="AE42" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AF41" s="8">
+      <c r="AF42" s="8">
         <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
-      <c r="AG41" s="8">
+      <c r="AG42" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH41" s="8">
-        <f>SUM(D41,F41,H41,J41, L41, N41, P41, R41, T41, V41,X41,Z41,AB41,AD41, AF41)</f>
-        <v>2.5</v>
-      </c>
-      <c r="AI41" s="8">
-        <f>AG41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="D42" s="5">
-        <v>0</v>
-      </c>
-      <c r="E42" s="5">
-        <f>C42-D42</f>
-        <v>1.5</v>
-      </c>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
-      <c r="G42" s="5">
-        <f>E42-F42</f>
-        <v>1.5</v>
-      </c>
-      <c r="H42" s="5">
-        <v>0</v>
-      </c>
-      <c r="I42" s="5">
-        <f>G42-H42</f>
-        <v>1.5</v>
-      </c>
-      <c r="J42" s="5">
-        <v>0</v>
-      </c>
-      <c r="K42" s="5">
-        <f>I42-J42</f>
-        <v>1.5</v>
-      </c>
-      <c r="L42" s="5">
-        <v>0</v>
-      </c>
-      <c r="M42" s="5">
-        <f>K42-L42</f>
-        <v>1.5</v>
-      </c>
-      <c r="N42" s="5">
-        <v>0</v>
-      </c>
-      <c r="O42" s="5">
-        <f>M42-N42</f>
-        <v>1.5</v>
-      </c>
-      <c r="P42" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="5">
-        <f>O42-P42</f>
-        <v>1.5</v>
-      </c>
-      <c r="R42" s="5">
-        <v>0</v>
-      </c>
-      <c r="S42" s="5">
-        <f>Q42-R42</f>
-        <v>1.5</v>
-      </c>
-      <c r="T42" s="5">
-        <v>0</v>
-      </c>
-      <c r="U42" s="5">
-        <f>S42-T42</f>
-        <v>1.5</v>
-      </c>
-      <c r="V42" s="5">
-        <v>0</v>
-      </c>
-      <c r="W42" s="5">
-        <f>U42-V42</f>
-        <v>1.5</v>
-      </c>
-      <c r="X42" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="5">
-        <f>W42-X42</f>
-        <v>1.5</v>
-      </c>
-      <c r="Z42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="5">
-        <f>Y42-Z42</f>
-        <v>1.5</v>
-      </c>
-      <c r="AB42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="5">
-        <f>AA42-AB42</f>
-        <v>1.5</v>
-      </c>
-      <c r="AD42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="5">
-        <f>AC42-AD42</f>
-        <v>1.5</v>
-      </c>
-      <c r="AF42" s="5">
-        <v>2</v>
-      </c>
-      <c r="AG42" s="5">
         <v>0</v>
       </c>
       <c r="AH42" s="8">
         <f>SUM(D42,F42,H42,J42, L42, N42, P42, R42, T42, V42,X42,Z42,AB42,AD42, AF42)</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AI42" s="8">
         <f>AG42</f>
@@ -5922,107 +5911,121 @@
     </row>
     <row r="43" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="5">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D43" s="5">
         <v>0</v>
       </c>
       <c r="E43" s="5">
-        <v>0.5</v>
+        <f>C43-D43</f>
+        <v>1.5</v>
       </c>
       <c r="F43" s="5">
         <v>0</v>
       </c>
       <c r="G43" s="5">
-        <v>0.5</v>
+        <f>E43-F43</f>
+        <v>1.5</v>
       </c>
       <c r="H43" s="5">
         <v>0</v>
       </c>
       <c r="I43" s="5">
-        <v>0.5</v>
+        <f>G43-H43</f>
+        <v>1.5</v>
       </c>
       <c r="J43" s="5">
         <v>0</v>
       </c>
       <c r="K43" s="5">
-        <v>0.5</v>
+        <f>I43-J43</f>
+        <v>1.5</v>
       </c>
       <c r="L43" s="5">
         <v>0</v>
       </c>
       <c r="M43" s="5">
-        <v>0.5</v>
+        <f>K43-L43</f>
+        <v>1.5</v>
       </c>
       <c r="N43" s="5">
         <v>0</v>
       </c>
       <c r="O43" s="5">
-        <v>0.5</v>
+        <f>M43-N43</f>
+        <v>1.5</v>
       </c>
       <c r="P43" s="5">
         <v>0</v>
       </c>
       <c r="Q43" s="5">
-        <v>0.5</v>
+        <f>O43-P43</f>
+        <v>1.5</v>
       </c>
       <c r="R43" s="5">
         <v>0</v>
       </c>
       <c r="S43" s="5">
-        <v>0.5</v>
+        <f>Q43-R43</f>
+        <v>1.5</v>
       </c>
       <c r="T43" s="5">
         <v>0</v>
       </c>
       <c r="U43" s="5">
-        <v>0.5</v>
+        <f>S43-T43</f>
+        <v>1.5</v>
       </c>
       <c r="V43" s="5">
         <v>0</v>
       </c>
       <c r="W43" s="5">
-        <v>0.5</v>
+        <f>U43-V43</f>
+        <v>1.5</v>
       </c>
       <c r="X43" s="5">
         <v>0</v>
       </c>
       <c r="Y43" s="5">
-        <v>0.5</v>
+        <f>W43-X43</f>
+        <v>1.5</v>
       </c>
       <c r="Z43" s="5">
         <v>0</v>
       </c>
       <c r="AA43" s="5">
-        <v>0.5</v>
+        <f>Y43-Z43</f>
+        <v>1.5</v>
       </c>
       <c r="AB43" s="5">
         <v>0</v>
       </c>
       <c r="AC43" s="5">
-        <v>0.5</v>
+        <f>AA43-AB43</f>
+        <v>1.5</v>
       </c>
       <c r="AD43" s="5">
         <v>0</v>
       </c>
       <c r="AE43" s="5">
-        <v>0.5</v>
+        <f>AC43-AD43</f>
+        <v>1.5</v>
       </c>
       <c r="AF43" s="5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AG43" s="5">
         <v>0</v>
       </c>
       <c r="AH43" s="8">
         <f>SUM(D43,F43,H43,J43, L43, N43, P43, R43, T43, V43,X43,Z43,AB43,AD43, AF43)</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AI43" s="8">
         <f>AG43</f>
@@ -6030,176 +6033,285 @@
       </c>
     </row>
     <row r="44" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
-      <c r="AG44" s="8"/>
-      <c r="AH44" s="8"/>
-      <c r="AI44" s="8"/>
+      <c r="A44" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="R44" s="5">
+        <v>0</v>
+      </c>
+      <c r="S44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="T44" s="5">
+        <v>0</v>
+      </c>
+      <c r="U44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="V44" s="5">
+        <v>0</v>
+      </c>
+      <c r="W44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X44" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AB44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AD44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AF44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AG44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="8">
+        <f>SUM(D44,F44,H44,J44, L44, N44, P44, R44, T44, V44,X44,Z44,AB44,AD44, AF44)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AI44" s="8">
+        <f>AG44</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+    </row>
+    <row r="46" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="5">
-        <f>SUM(C4,C8,C13,C17,C28,C31,C35,C38,C41)</f>
-        <v>43</v>
-      </c>
-      <c r="D45" s="5">
-        <f t="shared" ref="D45:AI45" si="8">SUM(D4,D8,D13,D17,D28,D31,D35,D38,D41)</f>
-        <v>1</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="B46" s="14"/>
+      <c r="C46" s="5">
+        <f>SUM(C4,C8,C13,C17,C28,C31,C35,C38,C42)</f>
+        <v>44</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" ref="D46:AI46" si="8">SUM(D4,D8,D13,D17,D28,D31,D35,D38,D42)</f>
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="8"/>
+        <v>38.5</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="5">
         <f t="shared" si="8"/>
         <v>37.5</v>
       </c>
-      <c r="F45" s="5">
+      <c r="H46" s="5">
         <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5">
         <f t="shared" si="8"/>
-        <v>36.5</v>
-      </c>
-      <c r="H45" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="I45" s="5">
-        <f t="shared" si="8"/>
-        <v>33</v>
-      </c>
-      <c r="J45" s="5">
+        <v>34</v>
+      </c>
+      <c r="J46" s="5">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K46" s="5">
         <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="L45" s="5">
+        <v>31</v>
+      </c>
+      <c r="L46" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M46" s="5">
         <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="N45" s="5">
+        <v>31</v>
+      </c>
+      <c r="N46" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O46" s="5">
         <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="P45" s="5">
+        <v>31</v>
+      </c>
+      <c r="P46" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="5">
+      <c r="Q46" s="5">
         <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="R45" s="5">
+        <v>31</v>
+      </c>
+      <c r="R46" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S45" s="5">
+      <c r="S46" s="5">
         <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="T45" s="5">
+        <v>31</v>
+      </c>
+      <c r="T46" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U45" s="5">
+      <c r="U46" s="5">
         <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="V45" s="5">
+        <v>31</v>
+      </c>
+      <c r="V46" s="5">
         <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
-      <c r="W45" s="5">
+      <c r="W46" s="5">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="X46" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="5">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="Z46" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA46" s="5">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="X45" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y45" s="5">
-        <f t="shared" si="8"/>
-        <v>26</v>
-      </c>
-      <c r="Z45" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AA45" s="5">
-        <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="AB45" s="5">
+      <c r="AB46" s="5">
         <f t="shared" si="8"/>
         <v>11.5</v>
       </c>
-      <c r="AC45" s="5">
+      <c r="AC46" s="5">
         <f t="shared" si="8"/>
-        <v>16.5</v>
-      </c>
-      <c r="AD45" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="AD46" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="AE45" s="5">
+      <c r="AE46" s="5">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AF45" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF46" s="5">
         <f t="shared" si="8"/>
-        <v>3.5</v>
-      </c>
-      <c r="AG45" s="5">
+        <v>4</v>
+      </c>
+      <c r="AG46" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AH45" s="5">
+      <c r="AH46" s="5">
         <f t="shared" si="8"/>
-        <v>34</v>
-      </c>
-      <c r="AI45" s="5">
+        <v>34.5</v>
+      </c>
+      <c r="AI46" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -6212,7 +6324,7 @@
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
@@ -6238,8 +6350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6257,8 +6369,8 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>'Sprint Backlog'!C45</f>
-        <v>43</v>
+        <f>'Sprint Backlog'!C46</f>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6266,8 +6378,8 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>'Sprint Backlog'!E45</f>
-        <v>37.5</v>
+        <f>'Sprint Backlog'!E46</f>
+        <v>38.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6275,8 +6387,8 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>'Sprint Backlog'!G45</f>
-        <v>36.5</v>
+        <f>'Sprint Backlog'!G46</f>
+        <v>37.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6284,8 +6396,8 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>'Sprint Backlog'!I45</f>
-        <v>33</v>
+        <f>'Sprint Backlog'!I46</f>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6293,8 +6405,8 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>'Sprint Backlog'!K45</f>
-        <v>30</v>
+        <f>'Sprint Backlog'!K46</f>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6302,8 +6414,8 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f>'Sprint Backlog'!M45</f>
-        <v>30</v>
+        <f>'Sprint Backlog'!M46</f>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6311,8 +6423,8 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f>'Sprint Backlog'!O45</f>
-        <v>30</v>
+        <f>'Sprint Backlog'!O46</f>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6320,8 +6432,8 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f>'Sprint Backlog'!Q45</f>
-        <v>30</v>
+        <f>'Sprint Backlog'!Q46</f>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6329,8 +6441,8 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <f>'Sprint Backlog'!S45</f>
-        <v>30</v>
+        <f>'Sprint Backlog'!S46</f>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6338,8 +6450,8 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f>'Sprint Backlog'!U45</f>
-        <v>30</v>
+        <f>'Sprint Backlog'!U46</f>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6347,8 +6459,8 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f>'Sprint Backlog'!W45</f>
-        <v>26</v>
+        <f>'Sprint Backlog'!W46</f>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6356,8 +6468,8 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <f>'Sprint Backlog'!Y45</f>
-        <v>26</v>
+        <f>'Sprint Backlog'!Y46</f>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6365,8 +6477,8 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <f>'Sprint Backlog'!AA45</f>
-        <v>25</v>
+        <f>'Sprint Backlog'!AA46</f>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6374,8 +6486,8 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <f>'Sprint Backlog'!AC45</f>
-        <v>16.5</v>
+        <f>'Sprint Backlog'!AC46</f>
+        <v>17.5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6383,8 +6495,8 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <f>'Sprint Backlog'!AE45</f>
-        <v>3</v>
+        <f>'Sprint Backlog'!AE46</f>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6392,7 +6504,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f>'Sprint Backlog'!AG45</f>
+        <f>'Sprint Backlog'!AG46</f>
         <v>1</v>
       </c>
     </row>
